--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationOrderChange.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationOrderChange.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="323">
   <si>
     <t>Path</t>
   </si>
@@ -822,8 +822,8 @@
     <t>Provenance.entity.what[x]</t>
   </si>
   <si>
-    <t>uri
-Reference(Resource)Identifier</t>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>Identity of entity</t>
@@ -841,6 +841,9 @@
     <t>Entity.Identity</t>
   </si>
   <si>
+    <t>whatIdentifier</t>
+  </si>
+  <si>
     <t>Provenance.entity.what[x].id</t>
   </si>
   <si>
@@ -848,6 +851,143 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].value</t>
+  </si>
+  <si>
+    <t>RX REFERENCE</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>This field is used to indicate which fill the activity took place.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @RX REFERENCE 52.3-.04</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>Provenance.entity.agent</t>
@@ -1027,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1059,7 +1199,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.4609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.2421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -4790,16 +4930,14 @@
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>257</v>
@@ -4834,15 +4972,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>53</v>
@@ -4854,18 +4994,20 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -4914,10 +5056,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>53</v>
@@ -4932,16 +5074,16 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -4950,14 +5092,14 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -4969,17 +5111,15 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5016,22 +5156,26 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5056,11 +5200,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5079,16 +5223,16 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5126,19 +5270,19 @@
         <v>44</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5156,7 +5300,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5170,7 +5314,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5181,28 +5325,32 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5226,13 +5374,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5250,13 +5398,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5280,8 +5428,806 @@
         <v>44</v>
       </c>
     </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN37">
+  <autoFilter ref="A1:AN44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5291,7 +6237,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
